--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB310.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB310.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1012930767491706</v>
+        <v>0.1012942899029146</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.32329375 0.94629866]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.056439031415098</v>
+        <v>1.056430168733275</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.43976721  0.52808933  0.72644784]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3648152578331523</v>
+        <v>0.3648215635934389</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00491449  0.02008922  0.99978611]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7774620357880303</v>
+        <v>0.7774609747866914</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.00146906  0.28154281 -0.95954754]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.049907420441237</v>
+        <v>2.049911883240604</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.72088551 0.28601219 0.63128528]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9773246910347931</v>
+        <v>0.9772765525014188</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.73289099 -0.26794639  0.62536031]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7762935556528396</v>
+        <v>0.7762933880188216</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31212327 0.95004161]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9539073870263207</v>
+        <v>0.9539078768857674</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.3091767   0.95100461]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.296357713906161</v>
+        <v>1.296331392875424</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.73439777  0.25940504  0.62719131]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.032651829502921</v>
+        <v>2.032655723420702</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.72554665 -0.27723529  0.62985923]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7423649932476751</v>
+        <v>0.7423662776918968</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 0.00144528 -0.28213156 -0.95937464]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.452212513171119</v>
+        <v>2.452203874206384</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.718175   -0.28106773  0.63657332]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.120324424102924</v>
+        <v>4.120309090252077</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.69963041 0.25511099 0.66740968]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.294054159878359</v>
+        <v>1.294056002612753</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30352545  0.95282333]</t>
+        </is>
       </c>
     </row>
   </sheetData>
